--- a/xlsx/结构功能主义_intext.xlsx
+++ b/xlsx/结构功能主义_intext.xlsx
@@ -29,19 +29,19 @@
     <t>社会学</t>
   </si>
   <si>
-    <t>政策_政策_政治學_结构功能主义</t>
+    <t>政策_政策_政治学_结构功能主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%84%E9%81%B8</t>
   </si>
   <si>
-    <t>賄選</t>
+    <t>贿选</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B7%E5%A7%A6</t>
   </si>
   <si>
-    <t>強姦</t>
+    <t>强奸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E5%B8%82</t>
@@ -59,19 +59,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E8%AB%96</t>
   </si>
   <si>
-    <t>演化論</t>
+    <t>演化论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E6%BC%94%E5%8C%96</t>
   </si>
   <si>
-    <t>社會演化</t>
+    <t>社会演化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%82%E7%88%BE%E5%B9%B9</t>
   </si>
   <si>
-    <t>涂爾幹</t>
+    <t>涂尔干</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%88%86%E5%B7%A5%E8%AE%BA</t>
